--- a/bin/Kostenübersicht.xlsx
+++ b/bin/Kostenübersicht.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Kostenübersicht PREN Gruppe 39</t>
   </si>
@@ -22,18 +22,12 @@
     <t>Kamera</t>
   </si>
   <si>
-    <t>Motor Drehrad</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
     <t>Motor Bälle</t>
   </si>
   <si>
-    <t>Motor Drehung</t>
-  </si>
-  <si>
     <t>Raspberry Pi</t>
   </si>
   <si>
@@ -85,15 +79,6 @@
     <t>Lager Platte</t>
   </si>
   <si>
-    <t>Lager Rad 1</t>
-  </si>
-  <si>
-    <t>Lager Rad 2</t>
-  </si>
-  <si>
-    <t>Lager Motor</t>
-  </si>
-  <si>
     <t>Holz</t>
   </si>
   <si>
@@ -128,6 +113,48 @@
   </si>
   <si>
     <t>Ritzel Spindel</t>
+  </si>
+  <si>
+    <t>qsh-4218-51-10-049</t>
+  </si>
+  <si>
+    <t>Schrittmotor</t>
+  </si>
+  <si>
+    <t>BLDC-Motor</t>
+  </si>
+  <si>
+    <t>Lager Drehrad</t>
+  </si>
+  <si>
+    <t>BLDC-Motor Regler</t>
+  </si>
+  <si>
+    <t>Ritzel Drehung</t>
+  </si>
+  <si>
+    <t>Stirnzahnrad aus Azetalharz gespritzt mit Nabe Modul 1 22 Zähne Zahnbreite 9mm Außendurchmesser 24mm</t>
+  </si>
+  <si>
+    <t>MÄDLER Rillenkugellager einreihig Innen-Ø 6mm Außen-Ø 19mm Breite 6mm mit beidseitigen Deckscheiben</t>
+  </si>
+  <si>
+    <t>Sicherhungsring Welle 6mm</t>
+  </si>
+  <si>
+    <t>Sicherhungsring Bohrung 19mm</t>
+  </si>
+  <si>
+    <t>Sicherungsring DIN 471 6mm</t>
+  </si>
+  <si>
+    <t>Sicherungsring DIN 472 19mm</t>
+  </si>
+  <si>
+    <t>Mutter für Drehrad</t>
+  </si>
+  <si>
+    <t>Sechskantmuttern mit Bund DIN 6331</t>
   </si>
 </sst>
 </file>
@@ -138,7 +165,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;fr.&quot;\ * #,##0.00_ ;_ &quot;fr.&quot;\ * \-#,##0.00_ ;_ &quot;fr.&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="&quot;fr.&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,9 +197,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -183,7 +218,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -473,6 +508,19 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -480,15 +528,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -520,16 +565,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -581,12 +620,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -892,637 +943,690 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H132"/>
+  <dimension ref="A1:H132"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I23" sqref="I22:I23"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34" customWidth="1"/>
     <col min="4" max="4" width="17.88671875" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
     <col min="6" max="7" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="35" t="s">
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="32"/>
-    </row>
-    <row r="3" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="38"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="32"/>
-    </row>
-    <row r="4" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="38"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="32"/>
-    </row>
-    <row r="5" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="41"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="32"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="9" t="s">
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="29"/>
+    </row>
+    <row r="3" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="35"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="29"/>
+    </row>
+    <row r="4" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="35"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="29"/>
+    </row>
+    <row r="5" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="38"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="29"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="18">
+        <v>23.27</v>
+      </c>
+      <c r="E9" s="18">
+        <v>23.27</v>
+      </c>
+      <c r="F9" s="19">
+        <v>41960</v>
+      </c>
+      <c r="G9" s="20">
+        <v>41971</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="13">
+        <v>37.22</v>
+      </c>
+      <c r="E10" s="14">
+        <v>37.22</v>
+      </c>
+      <c r="F10" s="15">
+        <v>41970</v>
+      </c>
+      <c r="G10" s="22">
+        <v>41977</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="13">
+        <v>7.95</v>
+      </c>
+      <c r="E11" s="14">
+        <v>7.95</v>
+      </c>
+      <c r="F11" s="15">
+        <v>41970</v>
+      </c>
+      <c r="G11" s="22">
+        <v>41991</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="21">
-        <v>23.27</v>
-      </c>
-      <c r="E9" s="21">
-        <v>23.27</v>
-      </c>
-      <c r="F9" s="22">
-        <v>41960</v>
-      </c>
-      <c r="G9" s="23">
-        <v>41971</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="14">
-        <v>37.22</v>
-      </c>
-      <c r="E10" s="15">
-        <v>37.22</v>
-      </c>
-      <c r="F10" s="16">
+      <c r="C12" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="13">
+        <v>16.95</v>
+      </c>
+      <c r="E12" s="14">
+        <v>16.95</v>
+      </c>
+      <c r="F12" s="15">
         <v>41970</v>
       </c>
-      <c r="G10" s="25">
+      <c r="G12" s="22">
         <v>41977</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="14">
-        <v>7.95</v>
-      </c>
-      <c r="E11" s="15">
-        <v>7.95</v>
-      </c>
-      <c r="F11" s="16">
-        <v>41970</v>
-      </c>
-      <c r="G11" s="25">
-        <v>41991</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="14">
-        <v>16.95</v>
-      </c>
-      <c r="E12" s="15">
-        <v>16.95</v>
-      </c>
-      <c r="F12" s="16">
-        <v>41970</v>
-      </c>
-      <c r="G12" s="25">
-        <v>41977</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="18">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="16">
         <v>30</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="13">
         <f>9.74+7.2</f>
         <v>16.940000000000001</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13" s="15">
         <v>42062</v>
       </c>
-      <c r="G13" s="25">
+      <c r="G13" s="22">
         <v>42068</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="44" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="16">
         <v>30</v>
       </c>
-      <c r="D14" s="18">
+      <c r="E14" s="13">
+        <v>14.83</v>
+      </c>
+      <c r="F14" s="15">
+        <v>42062</v>
+      </c>
+      <c r="G14" s="22">
+        <v>42068</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="48"/>
+      <c r="B15" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="13">
+        <v>60</v>
+      </c>
+      <c r="E15" s="13">
+        <v>11.81</v>
+      </c>
+      <c r="F15" s="15">
+        <v>42062</v>
+      </c>
+      <c r="G15" s="22">
+        <v>42068</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="48"/>
+      <c r="B16" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13">
+        <v>13.32</v>
+      </c>
+      <c r="F16" s="15">
+        <v>42062</v>
+      </c>
+      <c r="G16" s="22">
+        <v>42068</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="48"/>
+      <c r="B17" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13">
+        <v>4.21</v>
+      </c>
+      <c r="F17" s="15">
+        <v>42062</v>
+      </c>
+      <c r="G17" s="22">
+        <v>42068</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="48"/>
+      <c r="B18" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="14">
-        <v>14.83</v>
-      </c>
-      <c r="F14" s="16">
+      <c r="D18" s="13"/>
+      <c r="E18" s="13">
+        <v>2.8</v>
+      </c>
+      <c r="F18" s="15">
         <v>42062</v>
       </c>
-      <c r="G14" s="25">
+      <c r="G18" s="22">
         <v>42068</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="14">
-        <v>60</v>
-      </c>
-      <c r="E15" s="14">
-        <v>11.81</v>
-      </c>
-      <c r="F15" s="16">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="48"/>
+      <c r="B19" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="13">
+        <v>50</v>
+      </c>
+      <c r="E19" s="13">
+        <v>49.95</v>
+      </c>
+      <c r="F19" s="15">
         <v>42062</v>
       </c>
-      <c r="G15" s="25">
-        <v>42068</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14">
-        <v>13.32</v>
-      </c>
-      <c r="F16" s="16">
-        <v>42062</v>
-      </c>
-      <c r="G16" s="25">
-        <v>42068</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="45" t="s">
+      <c r="G19" s="22">
+        <v>42074</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="44"/>
+      <c r="D20" s="13">
+        <v>100</v>
+      </c>
+      <c r="E20" s="13">
+        <v>79.95</v>
+      </c>
+      <c r="F20" s="15">
+        <v>42076</v>
+      </c>
+      <c r="G20" s="22">
+        <v>42076</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="44"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13">
+        <v>54.95</v>
+      </c>
+      <c r="F21" s="15">
+        <v>42076</v>
+      </c>
+      <c r="G21" s="22">
+        <v>42076</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13">
+        <v>0.72</v>
+      </c>
+      <c r="F22" s="15">
+        <v>42076</v>
+      </c>
+      <c r="G22" s="23"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B23" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13">
+        <v>0.99</v>
+      </c>
+      <c r="F23" s="15">
+        <v>42076</v>
+      </c>
+      <c r="G23" s="23"/>
+    </row>
+    <row r="24" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14">
-        <v>4.21</v>
-      </c>
-      <c r="F17" s="16">
-        <v>42062</v>
-      </c>
-      <c r="G17" s="25">
-        <v>42068</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14">
-        <v>2.8</v>
-      </c>
-      <c r="F18" s="16">
-        <v>42062</v>
-      </c>
-      <c r="G18" s="25">
-        <v>42068</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="14">
-        <v>50</v>
-      </c>
-      <c r="E19" s="14">
-        <v>49.95</v>
-      </c>
-      <c r="F19" s="16">
-        <v>42062</v>
-      </c>
-      <c r="G19" s="26"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="24"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="26"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="24"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="26"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="24"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="26"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="24"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="26"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="24"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="26"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="24"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="26"/>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B26" s="24"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="26"/>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B27" s="24"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="26"/>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B28" s="24" t="s">
+      <c r="C24" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="13">
         <v>15</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="14">
+      <c r="E24" s="13">
+        <v>3.84</v>
+      </c>
+      <c r="F24" s="15">
+        <v>42076</v>
+      </c>
+      <c r="G24" s="23"/>
+    </row>
+    <row r="25" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13">
+        <v>3.44</v>
+      </c>
+      <c r="F25" s="15">
+        <v>42076</v>
+      </c>
+      <c r="G25" s="23"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B26" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13">
+        <v>2.76</v>
+      </c>
+      <c r="F26" s="15">
+        <v>42076</v>
+      </c>
+      <c r="G26" s="23"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B27" s="21"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="23"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B28" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="12"/>
+      <c r="D28" s="13">
         <v>30</v>
       </c>
-      <c r="E28" s="14"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="26"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B29" s="24"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="11"/>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B30" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="14">
-        <v>100</v>
-      </c>
-      <c r="E30" s="14"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="11"/>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B31" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="14">
+      <c r="E28" s="13"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="23"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B29" s="21"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="10"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B30" s="21"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="10"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B31" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="12"/>
+      <c r="D31" s="13">
         <v>20</v>
       </c>
-      <c r="E31" s="14"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="11"/>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B32" s="24"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="11"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="10"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B32" s="21"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="10"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B33" s="27"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="11"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="10"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B34" s="27"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="11"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="10"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B35" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="18">
+      <c r="B35" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="12"/>
+      <c r="D35" s="16">
         <v>10</v>
       </c>
-      <c r="E35" s="14"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="11"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="10"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B36" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="14">
+      <c r="B36" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" s="12"/>
+      <c r="D36" s="13">
         <v>25</v>
       </c>
-      <c r="E36" s="14"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="11"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="10"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B37" s="24" t="s">
+      <c r="B37" s="21"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="10"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B38" s="21"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="10"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B39" s="21"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="10"/>
+    </row>
+    <row r="40" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" s="26"/>
+      <c r="D40" s="27">
+        <v>15</v>
+      </c>
+      <c r="E40" s="27"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="10"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B41" s="10"/>
+      <c r="C41" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="14">
-        <v>15</v>
-      </c>
-      <c r="E37" s="14"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="11"/>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B38" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C38" s="13"/>
-      <c r="D38" s="14">
-        <v>15</v>
-      </c>
-      <c r="E38" s="14"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="11"/>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B39" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C39" s="13"/>
-      <c r="D39" s="14">
-        <v>15</v>
-      </c>
-      <c r="E39" s="14"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="11"/>
-    </row>
-    <row r="40" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C40" s="29"/>
-      <c r="D40" s="30">
-        <v>15</v>
-      </c>
-      <c r="E40" s="30"/>
-      <c r="F40" s="29"/>
-      <c r="G40" s="31"/>
-      <c r="H40" s="11"/>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B41" s="11"/>
-      <c r="C41" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="D41" s="34">
+      <c r="D41" s="31">
         <f>SUM(D9:D40)</f>
-        <v>500.39</v>
-      </c>
-      <c r="E41" s="34">
+        <v>470.39</v>
+      </c>
+      <c r="E41" s="31">
         <f>SUM(E9:E40)</f>
-        <v>199.25</v>
-      </c>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
+        <v>345.9</v>
+      </c>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="11"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
-      <c r="H49" s="11"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="11"/>
-      <c r="H50" s="11"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B51" s="11"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="11"/>
-      <c r="H51" s="11"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B52" s="11"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="11"/>
-      <c r="G52" s="11"/>
-      <c r="H52" s="11"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B54" s="2"/>

--- a/bin/Kostenübersicht.xlsx
+++ b/bin/Kostenübersicht.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="59">
   <si>
     <t>Kostenübersicht PREN Gruppe 39</t>
   </si>
@@ -25,9 +25,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Motor Bälle</t>
-  </si>
-  <si>
     <t>Raspberry Pi</t>
   </si>
   <si>
@@ -55,15 +52,9 @@
     <t>RPI CAMERA BOARD</t>
   </si>
   <si>
-    <t>Rad</t>
-  </si>
-  <si>
     <t>Spindel</t>
   </si>
   <si>
-    <t>Zahnrieme</t>
-  </si>
-  <si>
     <t>Zahnriemenscheibe Rad</t>
   </si>
   <si>
@@ -76,12 +67,6 @@
     <t>Budget (CHF)</t>
   </si>
   <si>
-    <t>Lager Platte</t>
-  </si>
-  <si>
-    <t>Holz</t>
-  </si>
-  <si>
     <t>Teil</t>
   </si>
   <si>
@@ -155,6 +140,57 @@
   </si>
   <si>
     <t>Sechskantmuttern mit Bund DIN 6331</t>
+  </si>
+  <si>
+    <t>Zahnriemenräder T5 für Riemenbreite 10 mm aus Kunststoff</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Zahnriemen Profil T5, Breite 10mm</t>
+  </si>
+  <si>
+    <t>Stehlager igus igubal KSTM-05 Bohrung 5mm</t>
+  </si>
+  <si>
+    <t>Sicherungsring DIN 472 16mm</t>
+  </si>
+  <si>
+    <t>Sicherungsring DIN 471 5mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MÄDLER Rillenkugellager einreihig Innen-Ø 5mm Außen-Ø 16mm Breite 5mm mit beidseitigen Deckscheiben </t>
+  </si>
+  <si>
+    <t>Alu Rundstange 4mm</t>
+  </si>
+  <si>
+    <t>Rad 150x30mm</t>
+  </si>
+  <si>
+    <t>Unterlagscheiben</t>
+  </si>
+  <si>
+    <t>Metallschrauben</t>
+  </si>
+  <si>
+    <t>Tretorn Tennisbälle</t>
+  </si>
+  <si>
+    <t>Rillenkugellager 5x16x5</t>
+  </si>
+  <si>
+    <t>Sicherungsring</t>
+  </si>
+  <si>
+    <t>Mehrwertsteuer</t>
+  </si>
+  <si>
+    <t>igubal Sthelager</t>
+  </si>
+  <si>
+    <t>Alu Rundstange 6mm</t>
   </si>
 </sst>
 </file>
@@ -218,7 +254,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -521,6 +557,45 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -528,7 +603,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -560,9 +635,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -593,33 +665,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -638,6 +683,57 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -943,10 +1039,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H132"/>
+  <dimension ref="A1:H139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -960,42 +1056,42 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="29"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="35"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="29"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="35"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="29"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="28"/>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="38"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="29"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="28"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D6" s="3"/>
@@ -1006,580 +1102,632 @@
     </row>
     <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F8" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="9" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="18">
+      <c r="C9" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="17">
         <v>23.27</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="53">
         <v>23.27</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="18">
         <v>41960</v>
       </c>
-      <c r="G9" s="20">
+      <c r="G9" s="19">
         <v>41971</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="46" t="s">
-        <v>8</v>
+      <c r="B10" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>7</v>
       </c>
       <c r="D10" s="13">
         <v>37.22</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="54">
         <v>37.22</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="14">
         <v>41970</v>
       </c>
-      <c r="G10" s="22">
+      <c r="G10" s="21">
         <v>41977</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="42" t="s">
+      <c r="B11" s="20" t="s">
         <v>10</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>9</v>
       </c>
       <c r="D11" s="13">
         <v>7.95</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="54">
         <v>7.95</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="14">
         <v>41970</v>
       </c>
-      <c r="G11" s="22">
+      <c r="G11" s="21">
         <v>41991</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="42" t="s">
-        <v>9</v>
+      <c r="B12" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>8</v>
       </c>
       <c r="D12" s="13">
         <v>16.95</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="54">
         <v>16.95</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="14">
         <v>41970</v>
       </c>
-      <c r="G12" s="22">
+      <c r="G12" s="21">
         <v>41977</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="16">
+      <c r="B13" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="15">
         <v>30</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="55">
         <f>9.74+7.2</f>
         <v>16.940000000000001</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="14">
         <v>42062</v>
       </c>
-      <c r="G13" s="22">
+      <c r="G13" s="21">
         <v>42068</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="16">
+      <c r="B14" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="15">
         <v>30</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="55">
         <v>14.83</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F14" s="14">
         <v>42062</v>
       </c>
-      <c r="G14" s="22">
+      <c r="G14" s="21">
         <v>42068</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="48"/>
-      <c r="B15" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="46" t="s">
-        <v>26</v>
+      <c r="A15" s="38"/>
+      <c r="B15" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="36" t="s">
+        <v>21</v>
       </c>
       <c r="D15" s="13">
         <v>60</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="55">
         <v>11.81</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F15" s="14">
         <v>42062</v>
       </c>
-      <c r="G15" s="22">
+      <c r="G15" s="21">
         <v>42068</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="48"/>
-      <c r="B16" s="47" t="s">
+      <c r="A16" s="38"/>
+      <c r="B16" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="13"/>
+      <c r="E16" s="55">
+        <v>13.32</v>
+      </c>
+      <c r="F16" s="14">
+        <v>42062</v>
+      </c>
+      <c r="G16" s="21">
+        <v>42068</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="38"/>
+      <c r="B17" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="13"/>
+      <c r="E17" s="55">
+        <v>4.21</v>
+      </c>
+      <c r="F17" s="14">
+        <v>42062</v>
+      </c>
+      <c r="G17" s="21">
+        <v>42068</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="38"/>
+      <c r="B18" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="42" t="s">
+      <c r="C18" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="13"/>
+      <c r="E18" s="55">
+        <v>2.8</v>
+      </c>
+      <c r="F18" s="14">
+        <v>42062</v>
+      </c>
+      <c r="G18" s="21">
+        <v>42068</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="38"/>
+      <c r="B19" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="34" t="s">
         <v>28</v>
-      </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13">
-        <v>13.32</v>
-      </c>
-      <c r="F16" s="15">
-        <v>42062</v>
-      </c>
-      <c r="G16" s="22">
-        <v>42068</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="48"/>
-      <c r="B17" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13">
-        <v>4.21</v>
-      </c>
-      <c r="F17" s="15">
-        <v>42062</v>
-      </c>
-      <c r="G17" s="22">
-        <v>42068</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="48"/>
-      <c r="B18" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13">
-        <v>2.8</v>
-      </c>
-      <c r="F18" s="15">
-        <v>42062</v>
-      </c>
-      <c r="G18" s="22">
-        <v>42068</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="48"/>
-      <c r="B19" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="44" t="s">
-        <v>33</v>
       </c>
       <c r="D19" s="13">
         <v>50</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="55">
         <v>49.95</v>
       </c>
-      <c r="F19" s="15">
+      <c r="F19" s="14">
         <v>42062</v>
       </c>
-      <c r="G19" s="22">
+      <c r="G19" s="21">
         <v>42074</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="44"/>
+      <c r="B20" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="34"/>
       <c r="D20" s="13">
         <v>100</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="55">
         <v>79.95</v>
       </c>
-      <c r="F20" s="15">
+      <c r="F20" s="14">
         <v>42076</v>
       </c>
-      <c r="G20" s="22">
+      <c r="G20" s="21">
         <v>42076</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="34"/>
+      <c r="D21" s="13">
+        <v>50</v>
+      </c>
+      <c r="E21" s="55">
+        <v>54.95</v>
+      </c>
+      <c r="F21" s="14">
+        <v>42076</v>
+      </c>
+      <c r="G21" s="21">
+        <v>42076</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="13"/>
+      <c r="E22" s="55">
+        <v>0.72</v>
+      </c>
+      <c r="F22" s="14">
+        <v>42076</v>
+      </c>
+      <c r="G22" s="22"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B23" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="44"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13">
-        <v>54.95</v>
-      </c>
-      <c r="F21" s="15">
+      <c r="C23" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="13"/>
+      <c r="E23" s="55">
+        <v>0.99</v>
+      </c>
+      <c r="F23" s="14">
         <v>42076</v>
       </c>
-      <c r="G21" s="22">
-        <v>42076</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13">
-        <v>0.72</v>
-      </c>
-      <c r="F22" s="15">
-        <v>42076</v>
-      </c>
-      <c r="G22" s="23"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13">
-        <v>0.99</v>
-      </c>
-      <c r="F23" s="15">
-        <v>42076</v>
-      </c>
-      <c r="G23" s="23"/>
+      <c r="G23" s="22"/>
     </row>
     <row r="24" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="41" t="s">
-        <v>40</v>
+      <c r="B24" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>35</v>
       </c>
       <c r="D24" s="13">
         <v>15</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E24" s="55">
         <v>3.84</v>
       </c>
-      <c r="F24" s="15">
+      <c r="F24" s="14">
         <v>42076</v>
       </c>
-      <c r="G24" s="23"/>
+      <c r="G24" s="22"/>
     </row>
     <row r="25" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="41" t="s">
-        <v>39</v>
+      <c r="B25" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="31" t="s">
+        <v>34</v>
       </c>
       <c r="D25" s="13"/>
-      <c r="E25" s="13">
+      <c r="E25" s="55">
         <v>3.44</v>
       </c>
-      <c r="F25" s="15">
+      <c r="F25" s="14">
         <v>42076</v>
       </c>
-      <c r="G25" s="23"/>
+      <c r="G25" s="22"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="13"/>
+      <c r="E26" s="55">
+        <v>2.76</v>
+      </c>
+      <c r="F26" s="14">
+        <v>42076</v>
+      </c>
+      <c r="G26" s="22"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B27" s="20"/>
+      <c r="C27" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" s="55">
+        <v>7.2</v>
+      </c>
+      <c r="F27" s="12"/>
+      <c r="G27" s="22"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B28" s="20"/>
+      <c r="C28" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="13"/>
+      <c r="E28" s="55">
+        <v>15.82</v>
+      </c>
+      <c r="F28" s="12"/>
+      <c r="G28" s="22"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B29" s="20"/>
+      <c r="C29" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="41" t="s">
+      <c r="D29" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" s="55">
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="F29" s="12"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="10"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B30" s="20"/>
+      <c r="C30" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13">
-        <v>2.76</v>
-      </c>
-      <c r="F26" s="15">
-        <v>42076</v>
-      </c>
-      <c r="G26" s="23"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B27" s="21"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="23"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B28" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="13">
-        <v>30</v>
-      </c>
-      <c r="E28" s="13"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="23"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B29" s="21"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="10"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B30" s="21"/>
-      <c r="C30" s="12"/>
       <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
+      <c r="E30" s="55">
+        <v>0.75</v>
+      </c>
       <c r="F30" s="12"/>
-      <c r="G30" s="23"/>
+      <c r="G30" s="22"/>
       <c r="H30" s="10"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B31" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" s="12"/>
-      <c r="D31" s="13">
-        <v>20</v>
-      </c>
-      <c r="E31" s="13"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" s="13"/>
+      <c r="E31" s="55">
+        <v>0.3</v>
+      </c>
       <c r="F31" s="12"/>
-      <c r="G31" s="23"/>
+      <c r="G31" s="22"/>
       <c r="H31" s="10"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B32" s="21"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E32" s="55">
+        <v>1.76</v>
+      </c>
       <c r="F32" s="12"/>
-      <c r="G32" s="23"/>
+      <c r="G32" s="22"/>
       <c r="H32" s="10"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B33" s="24"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="13"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" s="15"/>
+      <c r="E33" s="55">
+        <v>17.5</v>
+      </c>
       <c r="F33" s="12"/>
-      <c r="G33" s="23"/>
+      <c r="G33" s="22"/>
       <c r="H33" s="10"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B34" s="24"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="13"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" s="15"/>
+      <c r="E34" s="55">
+        <v>3.3</v>
+      </c>
       <c r="F34" s="12"/>
-      <c r="G34" s="23"/>
+      <c r="G34" s="22"/>
       <c r="H34" s="10"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B35" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35" s="12"/>
-      <c r="D35" s="16">
-        <v>10</v>
-      </c>
-      <c r="E35" s="13"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D35" s="15"/>
+      <c r="E35" s="55">
+        <v>1.95</v>
+      </c>
       <c r="F35" s="12"/>
-      <c r="G35" s="23"/>
+      <c r="G35" s="22"/>
       <c r="H35" s="10"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B36" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C36" s="12"/>
-      <c r="D36" s="13">
-        <v>25</v>
-      </c>
-      <c r="E36" s="13"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D36" s="13"/>
+      <c r="E36" s="55">
+        <v>3.45</v>
+      </c>
       <c r="F36" s="12"/>
-      <c r="G36" s="23"/>
+      <c r="G36" s="22"/>
       <c r="H36" s="10"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B37" s="21"/>
-      <c r="C37" s="12"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
+      <c r="E37" s="55">
+        <v>22.9</v>
+      </c>
       <c r="F37" s="12"/>
-      <c r="G37" s="23"/>
+      <c r="G37" s="22"/>
       <c r="H37" s="10"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B38" s="21"/>
-      <c r="C38" s="12"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="12" t="s">
+        <v>54</v>
+      </c>
       <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
+      <c r="E38" s="55">
+        <v>19.25</v>
+      </c>
       <c r="F38" s="12"/>
-      <c r="G38" s="23"/>
+      <c r="G38" s="22"/>
       <c r="H38" s="10"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B39" s="21"/>
-      <c r="C39" s="12"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="12" t="s">
+        <v>55</v>
+      </c>
       <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
+      <c r="E39" s="55">
+        <v>0.1</v>
+      </c>
       <c r="F39" s="12"/>
-      <c r="G39" s="23"/>
+      <c r="G39" s="22"/>
       <c r="H39" s="10"/>
     </row>
-    <row r="40" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="C40" s="26"/>
-      <c r="D40" s="27">
-        <v>15</v>
-      </c>
-      <c r="E40" s="27"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="28"/>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B40" s="49"/>
+      <c r="C40" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="D40" s="51"/>
+      <c r="E40" s="56">
+        <v>1.6</v>
+      </c>
+      <c r="F40" s="50"/>
+      <c r="G40" s="52"/>
       <c r="H40" s="10"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B41" s="10"/>
-      <c r="C41" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="D41" s="31">
-        <f>SUM(D9:D40)</f>
-        <v>470.39</v>
-      </c>
-      <c r="E41" s="31">
-        <f>SUM(E9:E40)</f>
-        <v>345.9</v>
-      </c>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
+      <c r="B41" s="49"/>
+      <c r="C41" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="D41" s="51"/>
+      <c r="E41" s="56">
+        <v>18.71</v>
+      </c>
+      <c r="F41" s="50"/>
+      <c r="G41" s="52"/>
       <c r="H41" s="10"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
+      <c r="B42" s="49"/>
+      <c r="C42" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="D42" s="51"/>
+      <c r="E42" s="56">
+        <v>18</v>
+      </c>
+      <c r="F42" s="50"/>
+      <c r="G42" s="52"/>
       <c r="H42" s="10"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
+      <c r="B43" s="49"/>
+      <c r="C43" s="50"/>
+      <c r="D43" s="51"/>
+      <c r="E43" s="56"/>
+      <c r="F43" s="50"/>
+      <c r="G43" s="52"/>
       <c r="H43" s="10"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
+      <c r="B44" s="49"/>
+      <c r="C44" s="50"/>
+      <c r="D44" s="51"/>
+      <c r="E44" s="56"/>
+      <c r="F44" s="50"/>
+      <c r="G44" s="52"/>
       <c r="H44" s="10"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
+      <c r="B45" s="49"/>
+      <c r="C45" s="50"/>
+      <c r="D45" s="51"/>
+      <c r="E45" s="56"/>
+      <c r="F45" s="50"/>
+      <c r="G45" s="52"/>
       <c r="H45" s="10"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
+      <c r="B46" s="49"/>
+      <c r="C46" s="50"/>
+      <c r="D46" s="51"/>
+      <c r="E46" s="56"/>
+      <c r="F46" s="50"/>
+      <c r="G46" s="52"/>
       <c r="H46" s="10"/>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
+    <row r="47" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="24"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="57"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="27"/>
       <c r="H47" s="10"/>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
+      <c r="C48" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" s="30">
+        <f>SUM(D9:D47)</f>
+        <v>420.39</v>
+      </c>
+      <c r="E48" s="30">
+        <f>SUM(E9:E47)</f>
+        <v>486.69999999999993</v>
+      </c>
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
       <c r="H48" s="10"/>
@@ -1621,68 +1769,75 @@
       <c r="H52" s="10"/>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B61" s="2"/>
@@ -2259,6 +2414,62 @@
       <c r="E132" s="1"/>
       <c r="F132" s="2"/>
       <c r="G132" s="2"/>
+    </row>
+    <row r="133" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B133" s="2"/>
+      <c r="C133" s="2"/>
+      <c r="D133" s="1"/>
+      <c r="E133" s="1"/>
+      <c r="F133" s="2"/>
+      <c r="G133" s="2"/>
+    </row>
+    <row r="134" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B134" s="2"/>
+      <c r="C134" s="2"/>
+      <c r="D134" s="1"/>
+      <c r="E134" s="1"/>
+      <c r="F134" s="2"/>
+      <c r="G134" s="2"/>
+    </row>
+    <row r="135" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B135" s="2"/>
+      <c r="C135" s="2"/>
+      <c r="D135" s="1"/>
+      <c r="E135" s="1"/>
+      <c r="F135" s="2"/>
+      <c r="G135" s="2"/>
+    </row>
+    <row r="136" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B136" s="2"/>
+      <c r="C136" s="2"/>
+      <c r="D136" s="1"/>
+      <c r="E136" s="1"/>
+      <c r="F136" s="2"/>
+      <c r="G136" s="2"/>
+    </row>
+    <row r="137" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B137" s="2"/>
+      <c r="C137" s="2"/>
+      <c r="D137" s="1"/>
+      <c r="E137" s="1"/>
+      <c r="F137" s="2"/>
+      <c r="G137" s="2"/>
+    </row>
+    <row r="138" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B138" s="2"/>
+      <c r="C138" s="2"/>
+      <c r="D138" s="1"/>
+      <c r="E138" s="1"/>
+      <c r="F138" s="2"/>
+      <c r="G138" s="2"/>
+    </row>
+    <row r="139" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B139" s="2"/>
+      <c r="C139" s="2"/>
+      <c r="D139" s="1"/>
+      <c r="E139" s="1"/>
+      <c r="F139" s="2"/>
+      <c r="G139" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/bin/Kostenübersicht.xlsx
+++ b/bin/Kostenübersicht.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="61">
   <si>
     <t>Kostenübersicht PREN Gruppe 39</t>
   </si>
@@ -191,6 +191,12 @@
   </si>
   <si>
     <t>Alu Rundstange 6mm</t>
+  </si>
+  <si>
+    <t>Gesamtkosten</t>
+  </si>
+  <si>
+    <t>486,70.-</t>
   </si>
 </sst>
 </file>
@@ -201,7 +207,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;fr.&quot;\ * #,##0.00_ ;_ &quot;fr.&quot;\ * \-#,##0.00_ ;_ &quot;fr.&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="&quot;fr.&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,6 +251,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -603,7 +618,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -683,33 +698,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -733,6 +721,48 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1039,10 +1069,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H139"/>
+  <dimension ref="A1:L139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1052,55 +1082,94 @@
     <col min="4" max="4" width="17.88671875" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
     <col min="6" max="7" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="90.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="39" t="s">
+    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:12" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="41"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28"/>
-    </row>
-    <row r="3" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="42"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="44"/>
+      <c r="K2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="60" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="52"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="54"/>
       <c r="H3" s="28"/>
-    </row>
-    <row r="4" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="42"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="44"/>
+      <c r="K3" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="59">
+        <v>23.27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="52"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="54"/>
       <c r="H4" s="28"/>
-    </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="45"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="47"/>
+      <c r="K4" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" s="45">
+        <v>37.22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="55"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="57"/>
       <c r="H5" s="28"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K5" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5" s="45">
+        <v>7.95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K6" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" s="45">
+        <v>16.95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K7" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" s="46">
+        <f>9.74+7.2</f>
+        <v>16.940000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="6" t="s">
         <v>17</v>
       </c>
@@ -1119,8 +1188,14 @@
       <c r="G8" s="9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K8" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="46">
+        <v>14.83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B9" s="16" t="s">
         <v>1</v>
       </c>
@@ -1130,7 +1205,7 @@
       <c r="D9" s="17">
         <v>23.27</v>
       </c>
-      <c r="E9" s="53">
+      <c r="E9" s="44">
         <v>23.27</v>
       </c>
       <c r="F9" s="18">
@@ -1139,8 +1214,14 @@
       <c r="G9" s="19">
         <v>41971</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K9" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="46">
+        <v>11.81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B10" s="20" t="s">
         <v>3</v>
       </c>
@@ -1150,7 +1231,7 @@
       <c r="D10" s="13">
         <v>37.22</v>
       </c>
-      <c r="E10" s="54">
+      <c r="E10" s="45">
         <v>37.22</v>
       </c>
       <c r="F10" s="14">
@@ -1159,8 +1240,14 @@
       <c r="G10" s="21">
         <v>41977</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K10" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="L10" s="46">
+        <v>13.32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B11" s="20" t="s">
         <v>10</v>
       </c>
@@ -1170,7 +1257,7 @@
       <c r="D11" s="13">
         <v>7.95</v>
       </c>
-      <c r="E11" s="54">
+      <c r="E11" s="45">
         <v>7.95</v>
       </c>
       <c r="F11" s="14">
@@ -1179,8 +1266,14 @@
       <c r="G11" s="21">
         <v>41991</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K11" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11" s="46">
+        <v>4.21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B12" s="20" t="s">
         <v>6</v>
       </c>
@@ -1190,7 +1283,7 @@
       <c r="D12" s="13">
         <v>16.95</v>
       </c>
-      <c r="E12" s="54">
+      <c r="E12" s="45">
         <v>16.95</v>
       </c>
       <c r="F12" s="14">
@@ -1199,8 +1292,14 @@
       <c r="G12" s="21">
         <v>41977</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K12" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="L12" s="46">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B13" s="23" t="s">
         <v>13</v>
       </c>
@@ -1210,7 +1309,7 @@
       <c r="D13" s="15">
         <v>30</v>
       </c>
-      <c r="E13" s="55">
+      <c r="E13" s="46">
         <f>9.74+7.2</f>
         <v>16.940000000000001</v>
       </c>
@@ -1220,8 +1319,14 @@
       <c r="G13" s="21">
         <v>42068</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K13" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="L13" s="46">
+        <v>49.95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B14" s="23" t="s">
         <v>14</v>
       </c>
@@ -1231,7 +1336,7 @@
       <c r="D14" s="15">
         <v>30</v>
       </c>
-      <c r="E14" s="55">
+      <c r="E14" s="46">
         <v>14.83</v>
       </c>
       <c r="F14" s="14">
@@ -1240,8 +1345,14 @@
       <c r="G14" s="21">
         <v>42068</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K14" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="L14" s="46">
+        <v>79.95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="38"/>
       <c r="B15" s="37" t="s">
         <v>12</v>
@@ -1252,7 +1363,7 @@
       <c r="D15" s="13">
         <v>60</v>
       </c>
-      <c r="E15" s="55">
+      <c r="E15" s="46">
         <v>11.81</v>
       </c>
       <c r="F15" s="14">
@@ -1261,8 +1372,14 @@
       <c r="G15" s="21">
         <v>42068</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K15" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="L15" s="46">
+        <v>54.95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="38"/>
       <c r="B16" s="37" t="s">
         <v>22</v>
@@ -1271,7 +1388,7 @@
         <v>23</v>
       </c>
       <c r="D16" s="13"/>
-      <c r="E16" s="55">
+      <c r="E16" s="46">
         <v>13.32</v>
       </c>
       <c r="F16" s="14">
@@ -1280,8 +1397,14 @@
       <c r="G16" s="21">
         <v>42068</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K16" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="L16" s="46">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="38"/>
       <c r="B17" s="37" t="s">
         <v>24</v>
@@ -1290,7 +1413,7 @@
         <v>26</v>
       </c>
       <c r="D17" s="13"/>
-      <c r="E17" s="55">
+      <c r="E17" s="46">
         <v>4.21</v>
       </c>
       <c r="F17" s="14">
@@ -1299,8 +1422,14 @@
       <c r="G17" s="21">
         <v>42068</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K17" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="L17" s="46">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="38"/>
       <c r="B18" s="37" t="s">
         <v>27</v>
@@ -1309,7 +1438,7 @@
         <v>25</v>
       </c>
       <c r="D18" s="13"/>
-      <c r="E18" s="55">
+      <c r="E18" s="46">
         <v>2.8</v>
       </c>
       <c r="F18" s="14">
@@ -1318,8 +1447,14 @@
       <c r="G18" s="21">
         <v>42068</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K18" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="L18" s="46">
+        <v>3.84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="38"/>
       <c r="B19" s="37" t="s">
         <v>29</v>
@@ -1330,7 +1465,7 @@
       <c r="D19" s="13">
         <v>50</v>
       </c>
-      <c r="E19" s="55">
+      <c r="E19" s="46">
         <v>49.95</v>
       </c>
       <c r="F19" s="14">
@@ -1339,16 +1474,24 @@
       <c r="G19" s="21">
         <v>42074</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K19" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="L19" s="46">
+        <v>3.44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B20" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="34"/>
+      <c r="C20" s="20" t="s">
+        <v>30</v>
+      </c>
       <c r="D20" s="13">
         <v>100</v>
       </c>
-      <c r="E20" s="55">
+      <c r="E20" s="46">
         <v>79.95</v>
       </c>
       <c r="F20" s="14">
@@ -1357,16 +1500,24 @@
       <c r="G20" s="21">
         <v>42076</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K20" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="L20" s="46">
+        <v>2.76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B21" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="34"/>
+      <c r="C21" s="20" t="s">
+        <v>32</v>
+      </c>
       <c r="D21" s="13">
         <v>50</v>
       </c>
-      <c r="E21" s="55">
+      <c r="E21" s="46">
         <v>54.95</v>
       </c>
       <c r="F21" s="14">
@@ -1375,8 +1526,14 @@
       <c r="G21" s="21">
         <v>42076</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K21" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="L21" s="46">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B22" s="20" t="s">
         <v>36</v>
       </c>
@@ -1384,15 +1541,21 @@
         <v>38</v>
       </c>
       <c r="D22" s="13"/>
-      <c r="E22" s="55">
+      <c r="E22" s="46">
         <v>0.72</v>
       </c>
       <c r="F22" s="14">
         <v>42076</v>
       </c>
       <c r="G22" s="22"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K22" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="L22" s="46">
+        <v>15.82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B23" s="20" t="s">
         <v>37</v>
       </c>
@@ -1400,15 +1563,21 @@
         <v>39</v>
       </c>
       <c r="D23" s="13"/>
-      <c r="E23" s="55">
+      <c r="E23" s="46">
         <v>0.99</v>
       </c>
       <c r="F23" s="14">
         <v>42076</v>
       </c>
       <c r="G23" s="22"/>
-    </row>
-    <row r="24" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K23" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="L23" s="46">
+        <v>8.2100000000000009</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="20" t="s">
         <v>31</v>
       </c>
@@ -1418,15 +1587,21 @@
       <c r="D24" s="13">
         <v>15</v>
       </c>
-      <c r="E24" s="55">
+      <c r="E24" s="46">
         <v>3.84</v>
       </c>
       <c r="F24" s="14">
         <v>42076</v>
       </c>
       <c r="G24" s="22"/>
-    </row>
-    <row r="25" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K24" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="L24" s="46">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="20" t="s">
         <v>33</v>
       </c>
@@ -1434,15 +1609,21 @@
         <v>34</v>
       </c>
       <c r="D25" s="13"/>
-      <c r="E25" s="55">
+      <c r="E25" s="46">
         <v>3.44</v>
       </c>
       <c r="F25" s="14">
         <v>42076</v>
       </c>
       <c r="G25" s="22"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K25" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="L25" s="46">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B26" s="20" t="s">
         <v>40</v>
       </c>
@@ -1450,15 +1631,21 @@
         <v>41</v>
       </c>
       <c r="D26" s="13"/>
-      <c r="E26" s="55">
+      <c r="E26" s="46">
         <v>2.76</v>
       </c>
       <c r="F26" s="14">
         <v>42076</v>
       </c>
       <c r="G26" s="22"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K26" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="L26" s="46">
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B27" s="20"/>
       <c r="C27" s="12" t="s">
         <v>42</v>
@@ -1466,25 +1653,37 @@
       <c r="D27" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="E27" s="55">
+      <c r="E27" s="46">
         <v>7.2</v>
       </c>
       <c r="F27" s="12"/>
       <c r="G27" s="22"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K27" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="L27" s="46">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B28" s="20"/>
-      <c r="C28" s="48" t="s">
+      <c r="C28" s="39" t="s">
         <v>44</v>
       </c>
       <c r="D28" s="13"/>
-      <c r="E28" s="55">
+      <c r="E28" s="46">
         <v>15.82</v>
       </c>
       <c r="F28" s="12"/>
       <c r="G28" s="22"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K28" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="L28" s="46">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B29" s="20"/>
       <c r="C29" s="12" t="s">
         <v>45</v>
@@ -1492,40 +1691,58 @@
       <c r="D29" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="E29" s="55">
+      <c r="E29" s="46">
         <v>8.2100000000000009</v>
       </c>
       <c r="F29" s="12"/>
       <c r="G29" s="22"/>
       <c r="H29" s="10"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K29" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="L29" s="46">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B30" s="20"/>
-      <c r="C30" s="48" t="s">
+      <c r="C30" s="39" t="s">
         <v>46</v>
       </c>
       <c r="D30" s="13"/>
-      <c r="E30" s="55">
+      <c r="E30" s="46">
         <v>0.75</v>
       </c>
       <c r="F30" s="12"/>
       <c r="G30" s="22"/>
       <c r="H30" s="10"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K30" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="L30" s="46">
+        <v>3.45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B31" s="20"/>
-      <c r="C31" s="48" t="s">
+      <c r="C31" s="39" t="s">
         <v>47</v>
       </c>
       <c r="D31" s="13"/>
-      <c r="E31" s="55">
+      <c r="E31" s="46">
         <v>0.3</v>
       </c>
       <c r="F31" s="12"/>
       <c r="G31" s="22"/>
       <c r="H31" s="10"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K31" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="L31" s="46">
+        <v>22.9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B32" s="20"/>
       <c r="C32" s="12" t="s">
         <v>48</v>
@@ -1533,189 +1750,225 @@
       <c r="D32" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="E32" s="55">
+      <c r="E32" s="46">
         <v>1.76</v>
       </c>
       <c r="F32" s="12"/>
       <c r="G32" s="22"/>
       <c r="H32" s="10"/>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="K32" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="L32" s="46">
+        <v>19.25</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B33" s="23"/>
       <c r="C33" s="12" t="s">
         <v>49</v>
       </c>
       <c r="D33" s="15"/>
-      <c r="E33" s="55">
+      <c r="E33" s="46">
         <v>17.5</v>
       </c>
       <c r="F33" s="12"/>
       <c r="G33" s="22"/>
       <c r="H33" s="10"/>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="K33" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="L33" s="46">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B34" s="23"/>
       <c r="C34" s="12" t="s">
         <v>50</v>
       </c>
       <c r="D34" s="15"/>
-      <c r="E34" s="55">
+      <c r="E34" s="46">
         <v>3.3</v>
       </c>
       <c r="F34" s="12"/>
       <c r="G34" s="22"/>
       <c r="H34" s="10"/>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="K34" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="L34" s="46">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B35" s="23"/>
       <c r="C35" s="12" t="s">
         <v>51</v>
       </c>
       <c r="D35" s="15"/>
-      <c r="E35" s="55">
+      <c r="E35" s="46">
         <v>1.95</v>
       </c>
       <c r="F35" s="12"/>
       <c r="G35" s="22"/>
       <c r="H35" s="10"/>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="K35" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="L35" s="46">
+        <v>18.71</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B36" s="20"/>
       <c r="C36" s="12" t="s">
         <v>52</v>
       </c>
       <c r="D36" s="13"/>
-      <c r="E36" s="55">
+      <c r="E36" s="46">
         <v>3.45</v>
       </c>
       <c r="F36" s="12"/>
       <c r="G36" s="22"/>
       <c r="H36" s="10"/>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="K36" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="L36" s="46">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B37" s="20"/>
       <c r="C37" s="12" t="s">
         <v>53</v>
       </c>
       <c r="D37" s="13"/>
-      <c r="E37" s="55">
+      <c r="E37" s="46">
         <v>22.9</v>
       </c>
       <c r="F37" s="12"/>
       <c r="G37" s="22"/>
       <c r="H37" s="10"/>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B38" s="20"/>
       <c r="C38" s="12" t="s">
         <v>54</v>
       </c>
       <c r="D38" s="13"/>
-      <c r="E38" s="55">
+      <c r="E38" s="46">
         <v>19.25</v>
       </c>
       <c r="F38" s="12"/>
       <c r="G38" s="22"/>
       <c r="H38" s="10"/>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="K38" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="L38" s="62" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B39" s="20"/>
       <c r="C39" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D39" s="13"/>
-      <c r="E39" s="55">
+      <c r="E39" s="46">
         <v>0.1</v>
       </c>
       <c r="F39" s="12"/>
       <c r="G39" s="22"/>
       <c r="H39" s="10"/>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B40" s="49"/>
-      <c r="C40" s="50" t="s">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B40" s="40"/>
+      <c r="C40" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="D40" s="51"/>
-      <c r="E40" s="56">
+      <c r="D40" s="42"/>
+      <c r="E40" s="47">
         <v>1.6</v>
       </c>
-      <c r="F40" s="50"/>
-      <c r="G40" s="52"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="43"/>
       <c r="H40" s="10"/>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B41" s="49"/>
-      <c r="C41" s="50" t="s">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B41" s="40"/>
+      <c r="C41" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="D41" s="51"/>
-      <c r="E41" s="56">
+      <c r="D41" s="42"/>
+      <c r="E41" s="47">
         <v>18.71</v>
       </c>
-      <c r="F41" s="50"/>
-      <c r="G41" s="52"/>
+      <c r="F41" s="41"/>
+      <c r="G41" s="43"/>
       <c r="H41" s="10"/>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B42" s="49"/>
-      <c r="C42" s="50" t="s">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B42" s="40"/>
+      <c r="C42" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="D42" s="51"/>
-      <c r="E42" s="56">
+      <c r="D42" s="42"/>
+      <c r="E42" s="47">
         <v>18</v>
       </c>
-      <c r="F42" s="50"/>
-      <c r="G42" s="52"/>
+      <c r="F42" s="41"/>
+      <c r="G42" s="43"/>
       <c r="H42" s="10"/>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B43" s="49"/>
-      <c r="C43" s="50"/>
-      <c r="D43" s="51"/>
-      <c r="E43" s="56"/>
-      <c r="F43" s="50"/>
-      <c r="G43" s="52"/>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B43" s="40"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="47"/>
+      <c r="F43" s="41"/>
+      <c r="G43" s="43"/>
       <c r="H43" s="10"/>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B44" s="49"/>
-      <c r="C44" s="50"/>
-      <c r="D44" s="51"/>
-      <c r="E44" s="56"/>
-      <c r="F44" s="50"/>
-      <c r="G44" s="52"/>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B44" s="40"/>
+      <c r="C44" s="41"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="47"/>
+      <c r="F44" s="41"/>
+      <c r="G44" s="43"/>
       <c r="H44" s="10"/>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B45" s="49"/>
-      <c r="C45" s="50"/>
-      <c r="D45" s="51"/>
-      <c r="E45" s="56"/>
-      <c r="F45" s="50"/>
-      <c r="G45" s="52"/>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B45" s="40"/>
+      <c r="C45" s="41"/>
+      <c r="D45" s="42"/>
+      <c r="E45" s="47"/>
+      <c r="F45" s="41"/>
+      <c r="G45" s="43"/>
       <c r="H45" s="10"/>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B46" s="49"/>
-      <c r="C46" s="50"/>
-      <c r="D46" s="51"/>
-      <c r="E46" s="56"/>
-      <c r="F46" s="50"/>
-      <c r="G46" s="52"/>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B46" s="40"/>
+      <c r="C46" s="41"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="47"/>
+      <c r="F46" s="41"/>
+      <c r="G46" s="43"/>
       <c r="H46" s="10"/>
     </row>
-    <row r="47" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B47" s="24"/>
       <c r="C47" s="25"/>
       <c r="D47" s="26"/>
-      <c r="E47" s="57"/>
+      <c r="E47" s="48"/>
       <c r="F47" s="25"/>
       <c r="G47" s="27"/>
       <c r="H47" s="10"/>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B48" s="10"/>
       <c r="C48" s="29" t="s">
         <v>18</v>
